--- a/macrolocalizacion/recursos_origen_nacional_provincias.xlsx
+++ b/macrolocalizacion/recursos_origen_nacional_provincias.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t xml:space="preserve">provincias</t>
   </si>
@@ -29,26 +29,13 @@
     <t xml:space="preserve">Total 2016</t>
   </si>
   <si>
+    <t xml:space="preserve">PROMEDIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUENOS AIRES</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">fuente:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.economia.gob.ar/dnap/recursos/ron/serie/serie_ron.xlsx</t>
-    </r>
+    <t xml:space="preserve">fuente:https://www.economia.gob.ar/dnap/recursos/ron/serie/serie_ron.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">CATAMARCA</t>
@@ -130,15 +117,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,12 +146,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="CG Omega"/>
@@ -173,6 +157,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -229,12 +214,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,12 +228,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -269,16 +266,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,10 +297,28 @@
       <c r="F1" s="0" t="n">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>101168491.7</v>
@@ -320,13 +335,37 @@
       <c r="F2" s="0" t="n">
         <v>501534048.5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
+      <c r="G2" s="4" t="n">
+        <f aca="false">B2/(SUM($B$2:$B$25))</f>
+        <v>0.17965087374553</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">C2/(SUM(C$2:C$25))</f>
+        <v>0.181927713797526</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <f aca="false">D2/(SUM(D$2:D$25))</f>
+        <v>0.199728694570838</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <f aca="false">E2/(SUM(E$2:E$25))</f>
+        <v>0.222011530630917</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <f aca="false">F2/(SUM(F$2:F$25))</f>
+        <v>0.223832673803096</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <f aca="false">AVERAGE(G2:K2)</f>
+        <v>0.201430297309582</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>14157641.2</v>
@@ -343,13 +382,37 @@
       <c r="F3" s="0" t="n">
         <v>55441789.4</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>5</v>
+      <c r="G3" s="4" t="n">
+        <f aca="false">B3/(SUM($B$2:$B$25))</f>
+        <v>0.0251405607518385</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">C3/(SUM($C$2:$C$25))</f>
+        <v>0.0252856129171065</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">D3/(SUM(D$2:D$25))</f>
+        <v>0.0248840622186548</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">E3/(SUM(E$2:E$25))</f>
+        <v>0.0243619370833126</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">F3/(SUM(F$2:F$25))</f>
+        <v>0.024743452610935</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <f aca="false">AVERAGE(G3:K3)</f>
+        <v>0.0248831251163695</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>51826913.2</v>
@@ -366,13 +429,37 @@
       <c r="F4" s="0" t="n">
         <v>182817253.3</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>7</v>
+      <c r="G4" s="4" t="n">
+        <f aca="false">B4/(SUM($B$2:$B$25))</f>
+        <v>0.0920321147766381</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">C4/(SUM($C$2:$C$25))</f>
+        <v>0.0901098291766229</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">D4/(SUM(D$2:D$25))</f>
+        <v>0.0863886102589551</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">E4/(SUM(E$2:E$25))</f>
+        <v>0.0820888223864556</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <f aca="false">F4/(SUM(F$2:F$25))</f>
+        <v>0.0815906213064952</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <f aca="false">AVERAGE(G4:K4)</f>
+        <v>0.0864419995810334</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20242165.8</v>
@@ -389,10 +476,34 @@
       <c r="F5" s="0" t="n">
         <v>78695203.9</v>
       </c>
+      <c r="G5" s="4" t="n">
+        <f aca="false">B5/(SUM($B$2:$B$25))</f>
+        <v>0.0359452109185877</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">C5/(SUM($C$2:$C$25))</f>
+        <v>0.0360928002170878</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">D5/(SUM(D$2:D$25))</f>
+        <v>0.0352835391928643</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">E5/(SUM(E$2:E$25))</f>
+        <v>0.0345614314723042</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <f aca="false">F5/(SUM(F$2:F$25))</f>
+        <v>0.0351213600693689</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <f aca="false">AVERAGE(G5:K5)</f>
+        <v>0.0354008683740426</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>26652716.5</v>
@@ -409,10 +520,34 @@
       <c r="F6" s="0" t="n">
         <v>103865848.4</v>
       </c>
+      <c r="G6" s="4" t="n">
+        <f aca="false">B6/(SUM($B$2:$B$25))</f>
+        <v>0.0473288049120625</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">C6/(SUM($C$2:$C$25))</f>
+        <v>0.0475387251544584</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">D6/(SUM(D$2:D$25))</f>
+        <v>0.0465954555557935</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">E6/(SUM(E$2:E$25))</f>
+        <v>0.045645510887246</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <f aca="false">F6/(SUM(F$2:F$25))</f>
+        <v>0.046354919738214</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <f aca="false">AVERAGE(G6:K6)</f>
+        <v>0.0466926832495549</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>8706822.9</v>
@@ -429,10 +564,34 @@
       <c r="F7" s="0" t="n">
         <v>33561800.9</v>
       </c>
+      <c r="G7" s="4" t="n">
+        <f aca="false">B7/(SUM($B$2:$B$25))</f>
+        <v>0.0154612203389466</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">C7/(SUM($C$2:$C$25))</f>
+        <v>0.0155082269681024</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">D7/(SUM(D$2:D$25))</f>
+        <v>0.0150993009924447</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">E7/(SUM(E$2:E$25))</f>
+        <v>0.0147769097685354</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <f aca="false">F7/(SUM(F$2:F$25))</f>
+        <v>0.0149784997759612</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <f aca="false">AVERAGE(G7:K7)</f>
+        <v>0.0151648315687981</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>25744778.7</v>
@@ -449,10 +608,34 @@
       <c r="F8" s="0" t="n">
         <v>100679176.2</v>
       </c>
+      <c r="G8" s="4" t="n">
+        <f aca="false">B8/(SUM($B$2:$B$25))</f>
+        <v>0.045716526065796</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">C8/(SUM($C$2:$C$25))</f>
+        <v>0.0457857593158748</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">D8/(SUM(D$2:D$25))</f>
+        <v>0.045011352136604</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">E8/(SUM(E$2:E$25))</f>
+        <v>0.0440180461741061</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <f aca="false">F8/(SUM(F$2:F$25))</f>
+        <v>0.0449327204654163</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <f aca="false">AVERAGE(G8:K8)</f>
+        <v>0.0450928808315595</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>19232847.2</v>
@@ -469,10 +652,34 @@
       <c r="F9" s="0" t="n">
         <v>75054255.7</v>
       </c>
+      <c r="G9" s="4" t="n">
+        <f aca="false">B9/(SUM($B$2:$B$25))</f>
+        <v>0.0341529041901716</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">C9/(SUM($C$2:$C$25))</f>
+        <v>0.0343452798656853</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">D9/(SUM(D$2:D$25))</f>
+        <v>0.0336177718864613</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">E9/(SUM(E$2:E$25))</f>
+        <v>0.0329794015829238</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <f aca="false">F9/(SUM(F$2:F$25))</f>
+        <v>0.033496419203994</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <f aca="false">AVERAGE(G9:K9)</f>
+        <v>0.0337183553458472</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>15076151.1</v>
@@ -489,10 +696,34 @@
       <c r="F10" s="0" t="n">
         <v>58583983.5</v>
       </c>
+      <c r="G10" s="4" t="n">
+        <f aca="false">B10/(SUM($B$2:$B$25))</f>
+        <v>0.0267716131013015</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <f aca="false">C10/(SUM($C$2:$C$25))</f>
+        <v>0.0268962526732407</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">D10/(SUM(D$2:D$25))</f>
+        <v>0.0263864604225177</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">E10/(SUM(E$2:E$25))</f>
+        <v>0.0258282599093626</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <f aca="false">F10/(SUM(F$2:F$25))</f>
+        <v>0.0261458014825916</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <f aca="false">AVERAGE(G10:K10)</f>
+        <v>0.0264056775178028</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>9760058.6</v>
@@ -509,10 +740,34 @@
       <c r="F11" s="0" t="n">
         <v>39015549.8</v>
       </c>
+      <c r="G11" s="4" t="n">
+        <f aca="false">B11/(SUM($B$2:$B$25))</f>
+        <v>0.0173315132590593</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">C11/(SUM($C$2:$C$25))</f>
+        <v>0.0173040786188666</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">D11/(SUM(D$2:D$25))</f>
+        <v>0.0170592749635756</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">E11/(SUM(E$2:E$25))</f>
+        <v>0.0171306524902595</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <f aca="false">F11/(SUM(F$2:F$25))</f>
+        <v>0.0174124864657755</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">AVERAGE(G11:K11)</f>
+        <v>0.0172476011595073</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>10812715.7</v>
@@ -529,10 +784,34 @@
       <c r="F12" s="0" t="n">
         <v>42161290.8</v>
       </c>
+      <c r="G12" s="4" t="n">
+        <f aca="false">B12/(SUM($B$2:$B$25))</f>
+        <v>0.0192007787249339</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <f aca="false">C12/(SUM($C$2:$C$25))</f>
+        <v>0.019298589640672</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">D12/(SUM(D$2:D$25))</f>
+        <v>0.0189395713044724</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">E12/(SUM(E$2:E$25))</f>
+        <v>0.0184978874107154</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <f aca="false">F12/(SUM(F$2:F$25))</f>
+        <v>0.0188164183049556</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">AVERAGE(G12:K12)</f>
+        <v>0.0189506490771498</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>22097201.9</v>
@@ -549,10 +828,34 @@
       <c r="F13" s="0" t="n">
         <v>85848118.8</v>
       </c>
+      <c r="G13" s="4" t="n">
+        <f aca="false">B13/(SUM($B$2:$B$25))</f>
+        <v>0.0392393082268952</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <f aca="false">C13/(SUM($C$2:$C$25))</f>
+        <v>0.0394311082089574</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">D13/(SUM(D$2:D$25))</f>
+        <v>0.0386402256309693</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">E13/(SUM(E$2:E$25))</f>
+        <v>0.0378101572790126</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <f aca="false">F13/(SUM(F$2:F$25))</f>
+        <v>0.0383136778638267</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <f aca="false">AVERAGE(G13:K13)</f>
+        <v>0.0386868954419322</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18229180.2</v>
@@ -569,10 +872,34 @@
       <c r="F14" s="0" t="n">
         <v>70315654</v>
       </c>
+      <c r="G14" s="4" t="n">
+        <f aca="false">B14/(SUM($B$2:$B$25))</f>
+        <v>0.0323706333421072</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <f aca="false">C14/(SUM($C$2:$C$25))</f>
+        <v>0.0324981098684576</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <f aca="false">D14/(SUM(D$2:D$25))</f>
+        <v>0.0316625823177502</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">E14/(SUM(E$2:E$25))</f>
+        <v>0.0310411356580527</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <f aca="false">F14/(SUM(F$2:F$25))</f>
+        <v>0.0313815998975658</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <f aca="false">AVERAGE(G14:K14)</f>
+        <v>0.0317908122167867</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>9601283.5</v>
@@ -589,10 +916,34 @@
       <c r="F15" s="0" t="n">
         <v>36871465.5</v>
       </c>
+      <c r="G15" s="4" t="n">
+        <f aca="false">B15/(SUM($B$2:$B$25))</f>
+        <v>0.0170495669241409</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <f aca="false">C15/(SUM($C$2:$C$25))</f>
+        <v>0.0171503807933721</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <f aca="false">D15/(SUM(D$2:D$25))</f>
+        <v>0.0166550363304108</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">E15/(SUM(E$2:E$25))</f>
+        <v>0.0162871665436312</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <f aca="false">F15/(SUM(F$2:F$25))</f>
+        <v>0.0164555900732702</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <f aca="false">AVERAGE(G15:K15)</f>
+        <v>0.016719548132965</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>13402589.7</v>
@@ -609,10 +960,34 @@
       <c r="F16" s="0" t="n">
         <v>51989659.4</v>
       </c>
+      <c r="G16" s="4" t="n">
+        <f aca="false">B16/(SUM($B$2:$B$25))</f>
+        <v>0.0237997711500709</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <f aca="false">C16/(SUM($C$2:$C$25))</f>
+        <v>0.0239672126719893</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <f aca="false">D16/(SUM(D$2:D$25))</f>
+        <v>0.0234423301557464</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <f aca="false">E16/(SUM(E$2:E$25))</f>
+        <v>0.0229107051869789</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <f aca="false">F16/(SUM(F$2:F$25))</f>
+        <v>0.023202780565783</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <f aca="false">AVERAGE(G16:K16)</f>
+        <v>0.0234645599461137</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>21026846</v>
@@ -629,10 +1004,34 @@
       <c r="F17" s="0" t="n">
         <v>81082324</v>
       </c>
+      <c r="G17" s="4" t="n">
+        <f aca="false">B17/(SUM($B$2:$B$25))</f>
+        <v>0.0373386139551659</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <f aca="false">C17/(SUM($C$2:$C$25))</f>
+        <v>0.0374166755004931</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <f aca="false">D17/(SUM(D$2:D$25))</f>
+        <v>0.036620349949669</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <f aca="false">E17/(SUM(E$2:E$25))</f>
+        <v>0.0358762699071174</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <f aca="false">F17/(SUM(F$2:F$25))</f>
+        <v>0.0361867223837923</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <f aca="false">AVERAGE(G17:K17)</f>
+        <v>0.0366877263392475</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>17625964.2</v>
@@ -649,10 +1048,34 @@
       <c r="F18" s="0" t="n">
         <v>68789751.7</v>
       </c>
+      <c r="G18" s="4" t="n">
+        <f aca="false">B18/(SUM($B$2:$B$25))</f>
+        <v>0.0312994670171349</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <f aca="false">C18/(SUM($C$2:$C$25))</f>
+        <v>0.0314914023763376</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <f aca="false">D18/(SUM(D$2:D$25))</f>
+        <v>0.0309295100048606</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <f aca="false">E18/(SUM(E$2:E$25))</f>
+        <v>0.0302586548837312</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <f aca="false">F18/(SUM(F$2:F$25))</f>
+        <v>0.0307005957009558</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <f aca="false">AVERAGE(G18:K18)</f>
+        <v>0.030935925996604</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>13650094.6</v>
@@ -669,10 +1092,34 @@
       <c r="F19" s="0" t="n">
         <v>46196736.8</v>
       </c>
+      <c r="G19" s="4" t="n">
+        <f aca="false">B19/(SUM($B$2:$B$25))</f>
+        <v>0.0242392802382675</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">C19/(SUM($C$2:$C$25))</f>
+        <v>0.0233128418363978</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">D19/(SUM(D$2:D$25))</f>
+        <v>0.0219947687856969</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">E19/(SUM(E$2:E$25))</f>
+        <v>0.0209030008690799</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <f aca="false">F19/(SUM(F$2:F$25))</f>
+        <v>0.0206174219872968</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <f aca="false">AVERAGE(G19:K19)</f>
+        <v>0.0222134627433478</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>8535296.2</v>
@@ -689,10 +1136,34 @@
       <c r="F20" s="0" t="n">
         <v>33044371</v>
       </c>
+      <c r="G20" s="4" t="n">
+        <f aca="false">B20/(SUM($B$2:$B$25))</f>
+        <v>0.0151566302337875</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">C20/(SUM($C$2:$C$25))</f>
+        <v>0.0152025933846929</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">D20/(SUM(D$2:D$25))</f>
+        <v>0.0148118504061861</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">E20/(SUM(E$2:E$25))</f>
+        <v>0.0145439085981116</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <f aca="false">F20/(SUM(F$2:F$25))</f>
+        <v>0.0147475728461365</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <f aca="false">AVERAGE(G20:K20)</f>
+        <v>0.0148925110937829</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>53864506.7</v>
@@ -709,10 +1180,34 @@
       <c r="F21" s="0" t="n">
         <v>188006481.3</v>
       </c>
+      <c r="G21" s="4" t="n">
+        <f aca="false">B21/(SUM($B$2:$B$25))</f>
+        <v>0.0956503900564425</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <f aca="false">C21/(SUM($C$2:$C$25))</f>
+        <v>0.0929421791483025</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">D21/(SUM(D$2:D$25))</f>
+        <v>0.0887399550533886</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">E21/(SUM(E$2:E$25))</f>
+        <v>0.0843356617618167</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <f aca="false">F21/(SUM(F$2:F$25))</f>
+        <v>0.0839065533587413</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <f aca="false">AVERAGE(G21:K21)</f>
+        <v>0.0891149478757383</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>22017721.8</v>
@@ -729,10 +1224,34 @@
       <c r="F22" s="0" t="n">
         <v>85401684.7</v>
       </c>
+      <c r="G22" s="4" t="n">
+        <f aca="false">B22/(SUM($B$2:$B$25))</f>
+        <v>0.0390981707129277</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <f aca="false">C22/(SUM($C$2:$C$25))</f>
+        <v>0.0392816307586057</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">D22/(SUM(D$2:D$25))</f>
+        <v>0.0384735787911321</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">E22/(SUM(E$2:E$25))</f>
+        <v>0.037657662777996</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <f aca="false">F22/(SUM(F$2:F$25))</f>
+        <v>0.038114436080385</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <f aca="false">AVERAGE(G22:K22)</f>
+        <v>0.0385250958242093</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>25253858</v>
@@ -749,10 +1268,34 @@
       <c r="F23" s="0" t="n">
         <v>98156055.9</v>
       </c>
+      <c r="G23" s="4" t="n">
+        <f aca="false">B23/(SUM($B$2:$B$25))</f>
+        <v>0.0448447691460992</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <f aca="false">C23/(SUM($C$2:$C$25))</f>
+        <v>0.0450454596917383</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">D23/(SUM(D$2:D$25))</f>
+        <v>0.0441977948557555</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">E23/(SUM(E$2:E$25))</f>
+        <v>0.0432618155586916</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <f aca="false">F23/(SUM(F$2:F$25))</f>
+        <v>0.0438066617964885</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <f aca="false">AVERAGE(G23:K23)</f>
+        <v>0.0442313002097546</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>6571743.6</v>
@@ -769,10 +1312,34 @@
       <c r="F24" s="0" t="n">
         <v>25412090.9</v>
       </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">B24/(SUM($B$2:$B$25))</f>
+        <v>0.0116698337588401</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">C24/(SUM($C$2:$C$25))</f>
+        <v>0.011747900411768</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">D24/(SUM(D$2:D$25))</f>
+        <v>0.0114642695265646</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">E24/(SUM(E$2:E$25))</f>
+        <v>0.0112075669607793</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <f aca="false">F24/(SUM(F$2:F$25))</f>
+        <v>0.0113413162477927</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <f aca="false">AVERAGE(G24:K24)</f>
+        <v>0.011486177381149</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>27881846.9</v>
@@ -789,10 +1356,34 @@
       <c r="F25" s="0" t="n">
         <v>98140452.3</v>
       </c>
+      <c r="G25" s="4" t="n">
+        <f aca="false">B25/(SUM($B$2:$B$25))</f>
+        <v>0.0495114444532546</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <f aca="false">C25/(SUM($C$2:$C$25))</f>
+        <v>0.0504196370036443</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <f aca="false">D25/(SUM(D$2:D$25))</f>
+        <v>0.0533736546886888</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">E25/(SUM(E$2:E$25))</f>
+        <v>0.0520059042188622</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <f aca="false">F25/(SUM(F$2:F$25))</f>
+        <v>0.0437996979711622</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <f aca="false">AVERAGE(G25:K25)</f>
+        <v>0.0498220676671224</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://www.economia.gob.ar/dnap/recursos/ron/serie/serie_ron.xlsx"/>
+    <hyperlink ref="N2" r:id="rId1" display="fuente:https://www.economia.gob.ar/dnap/recursos/ron/serie/serie_ron.xlsx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -812,13 +1403,13 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +1434,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>101168491.7</v>
@@ -860,13 +1451,13 @@
       <c r="F2" s="0" t="n">
         <v>501534048.5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>14157641.2</v>
@@ -884,12 +1475,12 @@
         <v>55441789.4</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>51826913.2</v>
@@ -907,12 +1498,12 @@
         <v>182817253.3</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20242165.8</v>
@@ -932,7 +1523,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>26652716.5</v>
@@ -952,7 +1543,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>8706822.9</v>
@@ -972,7 +1563,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>25744778.7</v>
@@ -992,7 +1583,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>19232847.2</v>
@@ -1012,7 +1603,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>15076151.1</v>
@@ -1032,7 +1623,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>9760058.6</v>
@@ -1052,7 +1643,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>10812715.7</v>
@@ -1072,7 +1663,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>22097201.9</v>
@@ -1092,7 +1683,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18229180.2</v>
@@ -1112,7 +1703,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>9601283.5</v>
@@ -1132,7 +1723,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>13402589.7</v>
@@ -1152,7 +1743,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>21026846</v>
@@ -1172,7 +1763,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>17625964.2</v>
@@ -1192,7 +1783,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>13650094.6</v>
@@ -1212,7 +1803,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>8535296.2</v>
@@ -1232,7 +1823,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>53864506.7</v>
@@ -1252,7 +1843,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>22017721.8</v>
@@ -1272,7 +1863,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>25253858</v>
@@ -1292,7 +1883,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>6571743.6</v>
@@ -1312,7 +1903,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>27881846.9</v>
@@ -1332,11 +1923,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://www.economia.gob.ar/dnap/recursos/ron/serie/serie_ron.xlsx"/>
+    <hyperlink ref="K2" r:id="rId1" display="fuente:https://www.economia.gob.ar/dnap/recursos/ron/serie/serie_ron.xlsx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
